--- a/invoices_functions/files/invoices/so_invoices3.xlsx
+++ b/invoices_functions/files/invoices/so_invoices3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A515"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,3598 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2844815</t>
+          <t>SO2956596</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2841859</t>
+          <t>SO2997221</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2841945</t>
+          <t>SO2965596</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2842165</t>
+          <t>SO2956648</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2843028</t>
+          <t>SO2956652</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2856194</t>
+          <t>SO2956743</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2843472</t>
+          <t>SO2956597</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2844272</t>
+          <t>SO2956718</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2844556</t>
+          <t>SO2956742</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2855061</t>
+          <t>SO2956686</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2845982</t>
+          <t>SO2956698</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2849288</t>
+          <t>SO2956769</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2846084</t>
+          <t>SO2971904</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2854181</t>
+          <t>SO2956810</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2846377</t>
+          <t>SO2956885</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2846430</t>
+          <t>SO2956868</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2853405</t>
+          <t>SO2956940</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2853399</t>
+          <t>SO2956981</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2846667</t>
+          <t>SO2963460</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2847084</t>
+          <t>SO2998020</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2847017</t>
+          <t>SO2956939</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2846905</t>
+          <t>SO2958513</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2847018</t>
+          <t>SO2957035</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2848799</t>
+          <t>SO2957037</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2847094</t>
+          <t>SO2957046</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2847114</t>
+          <t>SO2957056</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2847304</t>
+          <t>SO2957036</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2847564</t>
+          <t>SO2957067</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2847732</t>
+          <t>SO2957083</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2847839</t>
+          <t>SO2957101</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2848067</t>
+          <t>SO2957099</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2847952</t>
+          <t>SO2957098</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2859443</t>
+          <t>SO2957189</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2848404</t>
+          <t>SO2957227</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2848211</t>
+          <t>SO2957274</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2848406</t>
+          <t>SO2957250</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2848198</t>
+          <t>SO2957348</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2848201</t>
+          <t>SO2957366</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2848493</t>
+          <t>SO2957346</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2848546</t>
+          <t>SO2962524</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2848821</t>
+          <t>SO2996516</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2848752</t>
+          <t>SO2957403</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2848935</t>
+          <t>SO2958555</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2849112</t>
+          <t>SO2957444</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2849210</t>
+          <t>SO2957408</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2849208</t>
+          <t>SO2957395</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2849273</t>
+          <t>SO2957409</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2852220</t>
+          <t>SO2957448</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2850141</t>
+          <t>SO2959741</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2849687</t>
+          <t>SO2957467</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2850214</t>
+          <t>SO2957564</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2849797</t>
+          <t>SO2957447</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2849931</t>
+          <t>SO2957450</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2849935</t>
+          <t>SO2957449</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2855785</t>
+          <t>SO2957526</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2850173</t>
+          <t>SO2958244</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2850024</t>
+          <t>SO2957461</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2850136</t>
+          <t>SO2962525</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2850172</t>
+          <t>SO2957440</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2850316</t>
+          <t>SO2957489</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2850213</t>
+          <t>SO2957621</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2850337</t>
+          <t>SO2958724</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2850586</t>
+          <t>SO2960048</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2851664</t>
+          <t>SO2957631</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2850582</t>
+          <t>SO2957700</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2850656</t>
+          <t>SO2957662</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2850650</t>
+          <t>SO2960190</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2850870</t>
+          <t>SO2957867</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2850875</t>
+          <t>SO2957787</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2850872</t>
+          <t>SO2957849</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2850979</t>
+          <t>SO2957786</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2850992</t>
+          <t>SO2957848</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2851082</t>
+          <t>SO2957850</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2850991</t>
+          <t>SO2996868</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2850990</t>
+          <t>SO2957797</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2850976</t>
+          <t>SO2958016</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2851008</t>
+          <t>SO2965090</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2851081</t>
+          <t>SO2958630</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2851080</t>
+          <t>SO2957982</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2851134</t>
+          <t>SO2957907</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2851255</t>
+          <t>SO2958600</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2851445</t>
+          <t>SO2958050</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2851440</t>
+          <t>SO2958015</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2851444</t>
+          <t>SO2969510</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2851436</t>
+          <t>SO2958367</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2851442</t>
+          <t>SO2961300</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2851437</t>
+          <t>SO2958141</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2861812</t>
+          <t>SO2958203</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2851627</t>
+          <t>SO2958116</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2853988</t>
+          <t>SO2958190</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2851980</t>
+          <t>SO2965161</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2851899</t>
+          <t>SO2958320</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2852175</t>
+          <t>SO2959917</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2856279</t>
+          <t>SO2958395</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2851938</t>
+          <t>SO2985516</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2852000</t>
+          <t>SO2965753</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2852014</t>
+          <t>SO2958350</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2852177</t>
+          <t>SO2958528</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2854182</t>
+          <t>SO2958541</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2852070</t>
+          <t>SO2958470</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2852463</t>
+          <t>SO2958428</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2852462</t>
+          <t>SO2967693</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2852782</t>
+          <t>SO2958556</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2852505</t>
+          <t>SO2959392</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2852878</t>
+          <t>SO2958601</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2852775</t>
+          <t>SO2958631</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2852772</t>
+          <t>SO2958720</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2852771</t>
+          <t>SO2958629</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2854583</t>
+          <t>SO2958639</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2852998</t>
+          <t>SO2958604</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2855255</t>
+          <t>SO2958726</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2853156</t>
+          <t>SO2958728</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2853755</t>
+          <t>SO2958702</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2853219</t>
+          <t>SO2958700</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2853756</t>
+          <t>SO2958699</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2853155</t>
+          <t>SO2958725</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2853372</t>
+          <t>SO2958753</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2853217</t>
+          <t>SO2958849</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2853375</t>
+          <t>SO2958902</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2853325</t>
+          <t>SO2958815</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2853575</t>
+          <t>SO2958800</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2853578</t>
+          <t>SO2958850</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2853580</t>
+          <t>SO2958984</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2853628</t>
+          <t>SO2959049</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2853754</t>
+          <t>SO2958885</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2855573</t>
+          <t>SO2959065</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2853759</t>
+          <t>SO2958903</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2853723</t>
+          <t>SO2961019</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2853760</t>
+          <t>SO2959031</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2854183</t>
+          <t>SO2959004</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2854127</t>
+          <t>SO2960775</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2854320</t>
+          <t>SO2959050</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2854463</t>
+          <t>SO2959074</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2854273</t>
+          <t>SO2959141</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2854396</t>
+          <t>SO2959166</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2854446</t>
+          <t>SO2959109</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2854559</t>
+          <t>SO2968899</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2854582</t>
+          <t>SO2965569</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2854732</t>
+          <t>SO2959208</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2854727</t>
+          <t>SO2959203</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2854729</t>
+          <t>SO2959223</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2855033</t>
+          <t>SO2959222</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2854973</t>
+          <t>SO2959274</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2864244</t>
+          <t>SO2959258</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2856698</t>
+          <t>SO2960402</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2858593</t>
+          <t>SO2959273</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2855458</t>
+          <t>SO2962729</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2855637</t>
+          <t>SO2968261</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2855575</t>
+          <t>SO2959355</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2855594</t>
+          <t>SO2959435</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2855900</t>
+          <t>SO2959534</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2855903</t>
+          <t>SO2959521</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2855901</t>
+          <t>SO2986119</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2855895</t>
+          <t>SO2959561</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2857046</t>
+          <t>SO2961461</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2855899</t>
+          <t>SO2960528</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2856160</t>
+          <t>SO2959557</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2856157</t>
+          <t>SO2959585</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2856285</t>
+          <t>SO2959666</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2856130</t>
+          <t>SO2992116</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2856280</t>
+          <t>SO2959611</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2856195</t>
+          <t>SO2967698</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2856191</t>
+          <t>SO2959704</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2856288</t>
+          <t>SO2959646</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2856359</t>
+          <t>SO2960259</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2856490</t>
+          <t>SO2959748</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2856362</t>
+          <t>SO2959743</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2856492</t>
+          <t>SO2963478</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2858396</t>
+          <t>SO2960855</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2856771</t>
+          <t>SO2964516</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2858592</t>
+          <t>SO2959800</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2858067</t>
+          <t>SO2959834</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2857980</t>
+          <t>SO2959814</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2857997</t>
+          <t>SO2959835</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2860216</t>
+          <t>SO2959874</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2858248</t>
+          <t>SO2959946</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2858243</t>
+          <t>SO2959996</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2858247</t>
+          <t>SO2993040</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2858331</t>
+          <t>SO2960075</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2858398</t>
+          <t>SO2961173</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2858937</t>
+          <t>SO2960027</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2858432</t>
+          <t>SO2959948</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2858586</t>
+          <t>SO2960051</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2858667</t>
+          <t>SO2962213</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2858879</t>
+          <t>SO2960132</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2858875</t>
+          <t>SO2959995</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2860482</t>
+          <t>SO2960074</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2858935</t>
+          <t>SO2960061</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2859013</t>
+          <t>SO2960084</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2860255</t>
+          <t>SO2970650</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2859249</t>
+          <t>SO2971572</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2859440</t>
+          <t>SO2960213</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2859724</t>
+          <t>SO2960110</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2859781</t>
+          <t>SO2960081</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2859780</t>
+          <t>SO2960114</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2861586</t>
+          <t>SO2971672</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2861420</t>
+          <t>SO2960776</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2860825</t>
+          <t>SO2960172</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2860128</t>
+          <t>SO2960216</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2860230</t>
+          <t>SO2960202</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2863335</t>
+          <t>SO2962787</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2860489</t>
+          <t>SO2960264</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2860486</t>
+          <t>SO2960201</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2860566</t>
+          <t>SO2960252</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2860827</t>
+          <t>SO2960276</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2860830</t>
+          <t>SO2960326</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2860897</t>
+          <t>SO2960246</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2861126</t>
+          <t>SO2960285</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2861169</t>
+          <t>SO2960960</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2861419</t>
+          <t>SO2960403</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2861421</t>
+          <t>SO2960680</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2861620</t>
+          <t>SO2960380</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2861527</t>
+          <t>SO2967729</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2861528</t>
+          <t>SO2960693</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2862348</t>
+          <t>SO2960512</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2861694</t>
+          <t>SO2960530</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2861893</t>
+          <t>SO2960433</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2862224</t>
+          <t>SO2960479</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2862143</t>
+          <t>SO2968885</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2862435</t>
+          <t>SO2960510</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2862546</t>
+          <t>SO2960571</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2862709</t>
+          <t>SO2960580</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2862911</t>
+          <t>SO2960659</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2863013</t>
+          <t>SO2960573</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2863131</t>
+          <t>SO2962236</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2863231</t>
+          <t>SO2960763</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2863334</t>
+          <t>SO2960708</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2863333</t>
+          <t>SO2960831</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2863376</t>
+          <t>SO2960826</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2863535</t>
+          <t>SO2960882</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2863534</t>
+          <t>SO2960957</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2863644</t>
+          <t>SO2979918</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2863715</t>
+          <t>SO2960856</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2864696</t>
+          <t>SO2960928</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2864206</t>
+          <t>SO2960881</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2864487</t>
+          <t>SO2960975</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2864564</t>
+          <t>SO2960931</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2865081</t>
+          <t>SO2960944</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2851301</t>
+          <t>SO2960945</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2850137</t>
+          <t>SO2960927</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2854275</t>
+          <t>SO2962791</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2848687</t>
+          <t>SO2961034</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2852965</t>
+          <t>SO2961004</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2846432</t>
+          <t>SO2971466</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2854540</t>
+          <t>SO2961036</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2847192</t>
+          <t>SO2961074</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2850315</t>
+          <t>SO2961033</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2842283</t>
+          <t>SO2961075</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2858244</t>
+          <t>SO2961172</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2856192</t>
+          <t>SO2961203</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2838489</t>
+          <t>SO2961154</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2850977</t>
+          <t>SO2969218</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2861578</t>
+          <t>SO2961207</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2850868</t>
+          <t>SO2961233</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2855062</t>
+          <t>SO2965930</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2854539</t>
+          <t>SO2961301</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2851625</t>
+          <t>SO2961361</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2846902</t>
+          <t>SO2961360</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2855752</t>
+          <t>SO2961369</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2845915</t>
+          <t>SO2961349</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2832940</t>
+          <t>SO2961351</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2864474</t>
+          <t>SO2961416</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2854033</t>
+          <t>SO2970824</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2854031</t>
+          <t>SO2961576</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2836623</t>
+          <t>SO2961574</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2855457</t>
+          <t>SO2961612</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2849573</t>
+          <t>SO2987850</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2854177</t>
+          <t>SO2963624</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2838084</t>
+          <t>SO2962326</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2854464</t>
+          <t>SO2961768</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2854376</t>
+          <t>SO2961860</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2838656</t>
+          <t>SO2988881</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2839073</t>
+          <t>SO2961845</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2838785</t>
+          <t>SO2963911</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2840760</t>
+          <t>SO2965009</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2850864</t>
+          <t>SO2961877</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2841990</t>
+          <t>SO2962454</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2841989</t>
+          <t>SO2964749</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2842321</t>
+          <t>SO2992807</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2843350</t>
+          <t>SO2962618</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2856363</t>
+          <t>SO2961893</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2842939</t>
+          <t>SO2963310</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2843222</t>
+          <t>SO2966982</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2848227</t>
+          <t>SO2966371</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2850652</t>
+          <t>SO2962022</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2843676</t>
+          <t>SO2962059</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2843586</t>
+          <t>SO2964107</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2844928</t>
+          <t>SO2962096</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2843909</t>
+          <t>SO2962129</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2845510</t>
+          <t>SO2969905</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2847085</t>
+          <t>SO2962122</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2847494</t>
+          <t>SO2962126</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2844864</t>
+          <t>SO2967952</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2845645</t>
+          <t>SO2967692</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2845999</t>
+          <t>SO2962239</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2846087</t>
+          <t>SO2962311</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2846090</t>
+          <t>SO2962359</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2846444</t>
+          <t>SO2963543</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2846375</t>
+          <t>SO2962455</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2846480</t>
+          <t>SO2962396</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2846710</t>
+          <t>SO2962428</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2846712</t>
+          <t>SO2962427</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2846647</t>
+          <t>SO2975106</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2846886</t>
+          <t>SO2962457</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2846828</t>
+          <t>SO2969710</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2846824</t>
+          <t>SO2962559</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2846779</t>
+          <t>SO2962589</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2846816</t>
+          <t>SO2963303</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2847010</t>
+          <t>SO2962561</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2847233</t>
+          <t>SO2962630</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2847016</t>
+          <t>SO2962615</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2847014</t>
+          <t>SO2962635</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2847133</t>
+          <t>SO2973746</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2851794</t>
+          <t>SO2962651</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2847303</t>
+          <t>SO2970988</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2847383</t>
+          <t>SO2962734</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2849558</t>
+          <t>SO2962730</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2847692</t>
+          <t>SO2962743</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2847841</t>
+          <t>SO2966373</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2847856</t>
+          <t>SO2962819</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2847980</t>
+          <t>SO2987575</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2848062</t>
+          <t>SO2962898</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2848207</t>
+          <t>SO2962817</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2848063</t>
+          <t>SO2963221</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2848225</t>
+          <t>SO2962890</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2848278</t>
+          <t>SO2962897</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2848399</t>
+          <t>SO2962974</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2848667</t>
+          <t>SO2965423</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2848784</t>
+          <t>SO2963412</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2848633</t>
+          <t>SO2962938</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2855768</t>
+          <t>SO2962909</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2848936</t>
+          <t>SO2962977</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2853757</t>
+          <t>SO2963006</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2849207</t>
+          <t>SO2963036</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2849244</t>
+          <t>SO2963038</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2849456</t>
+          <t>SO2963890</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2856278</t>
+          <t>SO2963727</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2849799</t>
+          <t>SO2963045</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2850314</t>
+          <t>SO2963252</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2853374</t>
+          <t>SO2963188</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2850045</t>
+          <t>SO2963040</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2850313</t>
+          <t>SO2963043</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2850140</t>
+          <t>SO2963100</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2850312</t>
+          <t>SO2963074</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2850660</t>
+          <t>SO2963139</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2862465</t>
+          <t>SO2963075</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2850867</t>
+          <t>SO2963135</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2850874</t>
+          <t>SO2963132</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2851044</t>
+          <t>SO2963187</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2850978</t>
+          <t>SO2963425</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2851023</t>
+          <t>SO2963254</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2865493</t>
+          <t>SO2963309</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2851121</t>
+          <t>SO2996746</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2855578</t>
+          <t>SO2963241</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2851439</t>
+          <t>SO2963377</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2855902</t>
+          <t>SO2967202</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2851623</t>
+          <t>SO2963371</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2851618</t>
+          <t>SO2963315</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2851622</t>
+          <t>SO2963375</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2851619</t>
+          <t>SO2964672</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2851865</t>
+          <t>SO2963379</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2853989</t>
+          <t>SO2963426</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2851867</t>
+          <t>SO2963482</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2851898</t>
+          <t>SO2967282</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2852396</t>
+          <t>SO2963433</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2852304</t>
+          <t>SO2963382</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2853510</t>
+          <t>SO2963415</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2852464</t>
+          <t>SO2963502</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2852780</t>
+          <t>SO2965522</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2852770</t>
+          <t>SO2963479</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2852778</t>
+          <t>SO2963513</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2852769</t>
+          <t>SO2971272</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2852601</t>
+          <t>SO2963612</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2853119</t>
+          <t>SO2963538</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2852776</t>
+          <t>SO2963617</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2853937</t>
+          <t>SO2970616</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2852877</t>
+          <t>SO2963609</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2856773</t>
+          <t>SO2963507</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2852875</t>
+          <t>SO2964131</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2852963</t>
+          <t>SO2963603</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2853118</t>
+          <t>SO2963580</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2853753</t>
+          <t>SO2963955</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2853218</t>
+          <t>SO2963722</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2853508</t>
+          <t>SO2963676</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2853347</t>
+          <t>SO2963685</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2855949</t>
+          <t>SO2963638</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2853509</t>
+          <t>SO2963856</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2853507</t>
+          <t>SO2963872</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2856354</t>
+          <t>SO2963733</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2853603</t>
+          <t>SO2963728</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2853761</t>
+          <t>SO2964130</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2853793</t>
+          <t>SO2963874</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2853752</t>
+          <t>SO2963729</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2856360</t>
+          <t>SO2963739</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2853798</t>
+          <t>SO2963831</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2853939</t>
+          <t>SO2963859</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2853987</t>
+          <t>SO2963854</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2854187</t>
+          <t>SO2963858</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2854277</t>
+          <t>SO2985049</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2854371</t>
+          <t>SO2963861</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2854375</t>
+          <t>SO2967206</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2854323</t>
+          <t>SO2963871</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2854321</t>
+          <t>SO2990435</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2854276</t>
+          <t>SO2964443</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2854400</t>
+          <t>SO2963917</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2854398</t>
+          <t>SO2963939</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2854538</t>
+          <t>SO2989251</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2854728</t>
+          <t>SO2964196</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2854586</t>
+          <t>SO2964105</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2856159</t>
+          <t>SO2964110</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2854607</t>
+          <t>SO2964195</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2856284</t>
+          <t>SO2987760</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2854911</t>
+          <t>SO2964103</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2855574</t>
+          <t>SO2964352</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2855820</t>
+          <t>SO2964197</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2856283</t>
+          <t>SO2964132</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2855190</t>
+          <t>SO2964190</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2855169</t>
+          <t>SO2964224</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2855191</t>
+          <t>SO2968205</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2855292</t>
+          <t>SO2964431</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2855576</t>
+          <t>SO2964344</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2859006</t>
+          <t>SO2964338</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2855494</t>
+          <t>SO2964345</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2855755</t>
+          <t>SO2964302</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2855757</t>
+          <t>SO2964263</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2855751</t>
+          <t>SO2964346</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2855815</t>
+          <t>SO2964351</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2856161</t>
+          <t>SO2964446</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2855924</t>
+          <t>SO2964481</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2856156</t>
+          <t>SO2964340</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2856193</t>
+          <t>SO2964436</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2856196</t>
+          <t>SO2969761</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2856282</t>
+          <t>SO2964337</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2856281</t>
+          <t>SO2964521</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2856352</t>
+          <t>SO2964620</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2856835</t>
+          <t>SO2964547</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2856364</t>
+          <t>SO2964518</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2856358</t>
+          <t>SO2964452</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2856486</t>
+          <t>SO2964485</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2856351</t>
+          <t>SO2964482</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2856361</t>
+          <t>SO2964694</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2856488</t>
+          <t>SO2964587</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2856357</t>
+          <t>SO2967198</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2856353</t>
+          <t>SO2964687</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2856487</t>
+          <t>SO2964791</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2856493</t>
+          <t>SO2964680</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2856770</t>
+          <t>SO2964691</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2857296</t>
+          <t>SO2964649</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2857601</t>
+          <t>SO2986218</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2858065</t>
+          <t>SO2972284</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2858066</t>
+          <t>SO2964621</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2858250</t>
+          <t>SO2964684</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2860508</t>
+          <t>SO2964674</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2858300</t>
+          <t>SO2964708</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2858330</t>
+          <t>SO2964998</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2858352</t>
+          <t>SO2968406</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2858584</t>
+          <t>SO2964792</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2858727</t>
+          <t>SO2967553</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2858726</t>
+          <t>SO2965390</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2858880</t>
+          <t>SO2966770</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2858876</t>
+          <t>SO2965013</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2860165</t>
+          <t>SO2964785</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2859005</t>
+          <t>SO2964901</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2859055</t>
+          <t>SO2964935</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2859172</t>
+          <t>SO2967706</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2859224</t>
+          <t>SO2965006</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2859438</t>
+          <t>SO2964899</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2859437</t>
+          <t>SO2967563</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2859523</t>
+          <t>SO2965003</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2859747</t>
+          <t>SO2964937</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2859758</t>
+          <t>SO2964963</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2860048</t>
+          <t>SO2965449</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2860229</t>
+          <t>SO2986120</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2860282</t>
+          <t>SO2965299</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2860828</t>
+          <t>SO2965091</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2860398</t>
+          <t>SO2965789</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2860484</t>
+          <t>SO2965296</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2860440</t>
+          <t>SO2968102</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2860481</t>
+          <t>SO2965297</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2860628</t>
+          <t>SO2965339</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2860739</t>
+          <t>SO2965424</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2861020</t>
+          <t>SO2965301</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2860968</t>
+          <t>SO2965298</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2861786</t>
+          <t>SO2965366</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2861129</t>
+          <t>SO2965312</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2861754</t>
+          <t>SO2965294</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2861295</t>
+          <t>SO2965311</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2861294</t>
+          <t>SO2965398</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2861315</t>
+          <t>SO2965529</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2861722</t>
+          <t>SO2965393</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2861810</t>
+          <t>SO2965367</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2862017</t>
+          <t>SO2965386</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2862751</t>
+          <t>SO2965359</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2862795</t>
+          <t>SO2970229</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2862975</t>
+          <t>SO2965422</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2863044</t>
+          <t>SO2965447</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2863108</t>
+          <t>SO2965594</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2863214</t>
+          <t>SO2965532</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2863215</t>
+          <t>SO2965480</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2863340</t>
+          <t>SO2996474</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2863339</t>
+          <t>SO2970059</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2863512</t>
+          <t>SO2965595</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2863366</t>
+          <t>SO2965592</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2863456</t>
+          <t>SO2965792</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2863356</t>
+          <t>SO2965625</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2863607</t>
+          <t>SO2968369</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2863542</t>
+          <t>SO2981948</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2864641</t>
+          <t>SO2965646</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2863834</t>
+          <t>SO2965624</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2864099</t>
+          <t>SO2965648</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2864208</t>
+          <t>SO2988128</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2864267</t>
+          <t>SO2966393</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2864816</t>
+          <t>SO2965734</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2850981</t>
+          <t>SO2965721</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>SO2965748</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>SO2965853</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>SO2965749</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>SO2965758</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>SO2965796</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>SO2965852</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>SO2965850</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>SO2965867</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>SO2965908</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>SO2965916</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>SO2965922</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>SO2967618</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>SO2965914</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>SO2965965</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>SO2965931</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>SO2965994</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>SO2965957</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>SO2966009</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>SO2966064</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>SO2965993</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>SO2971024</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>SO2965995</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>SO2991520</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>SO2966099</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>SO2966080</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>SO2966108</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>SO2966118</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>SO2966133</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>SO2966162</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>SO2966161</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>SO2966175</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>SO2966227</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>SO2968029</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>SO2966252</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>SO2966264</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>SO2966281</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>SO2966311</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>SO2966425</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>SO2971629</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>SO2966478</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>SO2966668</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>SO2966535</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>SO2967476</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>SO2966395</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>SO2966422</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>SO2966477</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>SO2966439</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>SO2966473</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>SO2966534</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>SO2976884</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>SO2966529</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>SO2966557</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>SO2966714</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>SO2966578</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>SO2966532</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>SO2966509</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>SO2966577</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>SO2966746</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>SO2966595</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>SO2966597</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>SO2993006</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>SO2966625</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>SO2975158</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>SO2966671</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>SO2967923</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>SO2966710</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>SO2966673</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>SO2966666</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>SO2967857</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>SO2966713</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>SO2966716</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>SO2966742</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>SO2966786</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>SO2967977</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>SO2966976</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>SO2966843</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>SO2967975</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>SO2966850</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>SO2966810</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>SO2976779</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>SO2966814</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>SO2968092</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>SO2966873</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>SO2966928</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>SO2973333</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>SO2967518</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>SO2966968</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>SO2967119</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>SO2966967</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>SO2967011</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>SO2966995</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>SO2966966</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>SO2968038</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>SO2966999</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>SO2968307</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>SO2967046</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>SO2967253</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>SO2967503</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>SO2971848</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>SO2967138</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>SO2967261</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>SO2967431</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>SO2967314</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>SO2967315</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>SO2967337</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>SO2967277</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>SO2967249</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>SO2969413</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>SO2967317</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>SO2967313</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>SO2983101</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>SO2967409</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>SO2967435</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>SO2967463</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>SO2967455</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>SO2967380</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>SO2967439</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>SO2967457</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>SO2967517</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>SO2967440</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>SO2967458</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>SO2967815</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>SO2967495</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>SO2967594</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>SO2967767</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>SO2967566</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>SO2967612</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>SO2967619</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>SO2967959</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>SO2971356</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>SO2967702</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>SO2967639</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>SO2967703</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>SO2970626</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>SO2988606</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>SO2968609</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>SO2967730</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>SO2967728</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>SO2967695</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>SO2967893</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>SO2967765</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>SO2967711</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>SO2967856</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>SO2967850</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>SO2967733</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>SO2970935</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>SO2967950</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>SO2969154</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>SO2970006</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>SO2967894</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>SO2967921</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>SO2967955</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>SO2967926</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>SO2967905</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>SO2969252</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>SO2967960</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>SO2969565</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>SO2968100</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>SO2995135</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>SO2967962</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>SO2968022</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>SO2995586</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>SO2968093</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>SO3004017</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>SO2968055</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>SO2968094</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>SO2968178</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>SO2968305</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>SO2968076</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>SO2968143</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>SO2968145</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>SO2968226</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>SO2980930</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>SO2971135</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>SO2968201</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>SO2968202</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>SO2985204</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>SO2968499</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>SO2968380</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>SO2968324</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>SO2970303</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>SO2974947</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>SO2976877</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>SO2968365</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>SO2968442</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>SO2968501</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>SO2997922</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>SO2969667</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>SO2968441</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>SO2968622</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>SO2972482</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>SO2969825</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>SO2989914</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>SO2968505</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>SO2968538</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>SO2968541</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>SO2968610</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>SO2968621</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>SO2968613</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>SO2968545</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>SO2971174</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>SO2968567</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>SO2971198</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>SO2970693</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>SO2968651</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>SO2976035</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>SO2968896</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>SO2968898</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>SO2968742</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>SO2968999</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>SO2968744</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>SO2970061</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>SO2968748</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>SO2968777</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>SO2968897</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>SO2969641</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>SO2968902</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>SO2985832</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>SO2968888</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>SO2968895</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>SO2970108</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SO2968931</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>SO2968863</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>SO2968918</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>SO2968924</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>SO2970406</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>SO2968834</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>SO2970060</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>SO2969145</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>SO2969152</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>SO2994528</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>SO2969147</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>SO2969031</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>SO2969188</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>SO2969166</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>SO2969148</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>SO2969220</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>SO2969191</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>SO2969144</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>SO2969408</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>SO2969115</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>SO2969222</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>SO2969192</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>SO2969216</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>SO2970734</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>SO2969219</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>SO2969256</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>SO2973110</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>SO2969454</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>SO2969403</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>SO2969406</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>SO2969401</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>SO2969402</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>SO2969469</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>SO2969477</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>SO2969489</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>SO2976569</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>SO2991437</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>SO2970137</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>SO2969544</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>SO2969675</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>SO2969563</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>SO2969671</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>SO2969673</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>SO2969684</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>SO2998857</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>SO2969664</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>SO2973386</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>SO2969674</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>SO2969858</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>SO2969705</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>SO2969663</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>SO2969706</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>SO2969738</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>SO2985843</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>SO2969790</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>SO2969892</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>SO2969828</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>SO2969793</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>SO2969789</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>SO2969859</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>SO2988404</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>SO2969943</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>SO2969980</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>SO2970078</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>SO2970027</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>SO2970305</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>SO2999553</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>SO2970281</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>SO2972089</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>SO2970345</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>SO2970295</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>SO2970322</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>SO2972885</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>SO2970323</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>SO2970344</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>SO2970138</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>SO3001860</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>SO2970293</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>SO2970374</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>SO2970392</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>SO2970455</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>SO2970617</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>SO2970403</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>SO2996867</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>SO2970451</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>SO2970405</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>SO2970501</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>SO2970620</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>SO2971458</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>SO2980777</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>SO2970550</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>SO2970618</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>SO2970554</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>SO2970531</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>SO2970647</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>SO2970677</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>SO2970713</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>SO2988260</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>SO2980733</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>SO2970692</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>SO2970826</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>SO2970759</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>SO2978067</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>SO2970755</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>SO2991414</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>SO2970821</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>SO2970756</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>SO2970739</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>SO2970763</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>SO2970782</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>SO2970986</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>SO2970914</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>SO2970920</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>SO2970803</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>SO2970911</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>SO2972605</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>SO2971030</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>SO2971038</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>SO2971140</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>SO2971031</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>SO2971223</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>SO2999135</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>SO2971177</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>SO2971464</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>SO2971220</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>SO2971215</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>SO2971225</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>SO2971126</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>SO2986718</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>SO2971674</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>SO2992371</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>SO2983633</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>SO2971305</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>SO2971332</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>SO2997750</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>SO2971632</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>SO2971427</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>SO2971506</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>SO2971677</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>SO2971417</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>SO2971512</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>SO2971505</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>SO2971717</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>SO2971894</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>SO2971511</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>SO2977502</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>SO2971637</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>SO2971715</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>SO2972102</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>SO2985128</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>SO2971628</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>SO2971639</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>SO2985037</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>SO2971891</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>SO2975601</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>SO2971910</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>SO2971903</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>SO2972213</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>SO2971776</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>SO2971636</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>SO2971898</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>SO2971720</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>SO2971906</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>SO2971810</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>SO2971887</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>SO2971912</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>SO2971845</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>SO2971885</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>SO2971890</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>SO2976516</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>SO2971980</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>SO2972428</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>SO2973930</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>SO2972212</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>SO2972091</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>SO2972057</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>SO2972209</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>SO2972208</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>SO2972210</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>SO2972086</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>SO2972090</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>SO2972215</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>SO2972649</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>SO2972759</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>SO2972287</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>SO2972281</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>SO2972371</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>SO2972283</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>SO2983352</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>SO2973339</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>SO2972368</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>SO2972523</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>SO2972553</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>SO2974427</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>SO2972774</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>SO2972551</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>SO2972651</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>SO2972644</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>SO2972647</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>SO2972646</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>SO2972810</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>SO2972814</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>SO2972846</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>SO2972683</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>SO2972977</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>SO2972761</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>SO2972982</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>SO2978823</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>SO2972891</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>SO2973178</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>SO2977301</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>SO2972976</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>SO2973016</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>SO2972897</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>SO2972935</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>SO3004087</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>SO2973420</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>SO2973179</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>SO2973139</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>SO2973328</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>SO2973338</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>SO2973382</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>SO2973322</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>SO2973383</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>SO2973330</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>SO2973281</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>SO2973218</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>SO2973222</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>SO2973710</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>SO2973319</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>SO2973384</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>SO2973612</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>SO2973807</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>SO2973585</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>SO2973452</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>SO2973769</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>SO2973573</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>SO2973607</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>SO2973709</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>SO2973422</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>SO2973488</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>SO2973609</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>SO2973708</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>SO2973810</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>SO2973528</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>SO2973569</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>SO2973582</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>SO2973611</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>SO2973742</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>SO2973713</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>SO2973931</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>SO2973885</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>SO2973933</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>SO2974194</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>SO2973925</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>SO2981651</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>SO2974089</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>SO2973926</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>SO2973997</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>SO2984401</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>SO2973946</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>SO2976820</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>SO2974080</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>SO2974000</t>
         </is>
       </c>
     </row>

--- a/invoices_functions/files/invoices/so_invoices3.xlsx
+++ b/invoices_functions/files/invoices/so_invoices3.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2956596</t>
+          <t>SO3116044</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2997221</t>
+          <t>SO3113042</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2965596</t>
+          <t>SO3111330</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2956648</t>
+          <t>SO3111331</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2956652</t>
+          <t>SO3111433</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2956743</t>
+          <t>SO3114155</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2956597</t>
+          <t>SO3150740</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2956718</t>
+          <t>SO3111432</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2956742</t>
+          <t>SO3111416</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2956686</t>
+          <t>SO3111444</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2956698</t>
+          <t>SO3113078</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2956769</t>
+          <t>SO3111544</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2971904</t>
+          <t>SO3111515</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2956810</t>
+          <t>SO3111500</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2956885</t>
+          <t>SO3150732</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2956868</t>
+          <t>SO3112004</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2956940</t>
+          <t>SO3111519</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2956981</t>
+          <t>SO3111502</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2963460</t>
+          <t>SO3111518</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2998020</t>
+          <t>SO3111618</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2956939</t>
+          <t>SO3111556</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2958513</t>
+          <t>SO3111555</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2957035</t>
+          <t>SO3111645</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2957037</t>
+          <t>SO3112943</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2957046</t>
+          <t>SO3111617</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2957056</t>
+          <t>SO3111729</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2957036</t>
+          <t>SO3111845</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2957067</t>
+          <t>SO3112418</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2957083</t>
+          <t>SO3111716</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2957101</t>
+          <t>SO3119510</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2957099</t>
+          <t>SO3124313</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2957098</t>
+          <t>SO3111759</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2957189</t>
+          <t>SO3111805</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2957227</t>
+          <t>SO3111807</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2957274</t>
+          <t>SO3111804</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2957250</t>
+          <t>SO3111860</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2957348</t>
+          <t>SO3111953</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2957366</t>
+          <t>SO3111882</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2957346</t>
+          <t>SO3111941</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2962524</t>
+          <t>SO3111932</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2996516</t>
+          <t>SO3111982</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2957403</t>
+          <t>SO3112075</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2958555</t>
+          <t>SO3112062</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2957444</t>
+          <t>SO3112103</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2957408</t>
+          <t>SO3131036</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2957395</t>
+          <t>SO3113848</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2957409</t>
+          <t>SO3117783</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2957448</t>
+          <t>SO3112102</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2959741</t>
+          <t>SO3112144</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2957467</t>
+          <t>SO3112239</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2957564</t>
+          <t>SO3118485</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2957447</t>
+          <t>SO3112341</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2957450</t>
+          <t>SO3114024</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2957449</t>
+          <t>SO3112400</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2957526</t>
+          <t>SO3112412</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2958244</t>
+          <t>SO3112426</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2957461</t>
+          <t>SO3116502</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2962525</t>
+          <t>SO3112538</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2957440</t>
+          <t>SO3112562</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2957489</t>
+          <t>SO3112546</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2957621</t>
+          <t>SO3112567</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2958724</t>
+          <t>SO3112669</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2960048</t>
+          <t>SO3112607</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2957631</t>
+          <t>SO3112648</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2957700</t>
+          <t>SO3112646</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2957662</t>
+          <t>SO3112740</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2960190</t>
+          <t>SO3112796</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2957867</t>
+          <t>SO3112824</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2957787</t>
+          <t>SO3112877</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2957849</t>
+          <t>SO3112853</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2957786</t>
+          <t>SO3112876</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2957848</t>
+          <t>SO3112848</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2957850</t>
+          <t>SO3112980</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2996868</t>
+          <t>SO3112896</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2957797</t>
+          <t>SO3113004</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2958016</t>
+          <t>SO3113002</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2965090</t>
+          <t>SO3113032</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2958630</t>
+          <t>SO3113001</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2957982</t>
+          <t>SO3113088</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2957907</t>
+          <t>SO3113003</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2958600</t>
+          <t>SO3113076</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2958050</t>
+          <t>SO3116555</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2958015</t>
+          <t>SO3115929</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2969510</t>
+          <t>SO3123420</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2958367</t>
+          <t>SO3113077</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2961300</t>
+          <t>SO3113192</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2958141</t>
+          <t>SO3113218</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2958203</t>
+          <t>SO3113222</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2958116</t>
+          <t>SO3113332</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2958190</t>
+          <t>SO3113478</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2965161</t>
+          <t>SO3113364</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2958320</t>
+          <t>SO3113440</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2959917</t>
+          <t>SO3113396</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2958395</t>
+          <t>SO3113365</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2985516</t>
+          <t>SO3113488</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2965753</t>
+          <t>SO3120230</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2958350</t>
+          <t>SO3113512</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2958528</t>
+          <t>SO3113441</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2958541</t>
+          <t>SO3113470</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2958470</t>
+          <t>SO3113450</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2958428</t>
+          <t>SO3114072</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2967693</t>
+          <t>SO3113511</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2958556</t>
+          <t>SO3113534</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2959392</t>
+          <t>SO3113600</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2958601</t>
+          <t>SO3113542</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2958631</t>
+          <t>SO3113570</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2958720</t>
+          <t>SO3113541</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2958629</t>
+          <t>SO3113620</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2958639</t>
+          <t>SO3113619</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2958604</t>
+          <t>SO3113685</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2958726</t>
+          <t>SO3113722</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2958728</t>
+          <t>SO3113686</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2958702</t>
+          <t>SO3113727</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2958700</t>
+          <t>SO3113721</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2958699</t>
+          <t>SO3113761</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2958725</t>
+          <t>SO3113782</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2958753</t>
+          <t>SO3115353</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2958849</t>
+          <t>SO3113785</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2958902</t>
+          <t>SO3113788</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2958815</t>
+          <t>SO3113822</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2958800</t>
+          <t>SO3113860</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2958850</t>
+          <t>SO3113894</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2958984</t>
+          <t>SO3113893</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2959049</t>
+          <t>SO3113955</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2958885</t>
+          <t>SO3113940</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2959065</t>
+          <t>SO3114048</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2958903</t>
+          <t>SO3114076</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2961019</t>
+          <t>SO3114055</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2959031</t>
+          <t>SO3114075</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2959004</t>
+          <t>SO3114100</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2960775</t>
+          <t>SO3114140</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2959050</t>
+          <t>SO3114162</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2959074</t>
+          <t>SO3114258</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2959141</t>
+          <t>SO3125072</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2959166</t>
+          <t>SO3114334</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2959109</t>
+          <t>SO3114321</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2968899</t>
+          <t>SO3114320</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2965569</t>
+          <t>SO3114506</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2959208</t>
+          <t>SO3114521</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2959203</t>
+          <t>SO3114577</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2959223</t>
+          <t>SO3132072</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2959222</t>
+          <t>SO3120306</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2959274</t>
+          <t>SO3114417</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2959258</t>
+          <t>SO3119449</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2960402</t>
+          <t>SO3114464</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2959273</t>
+          <t>SO3114510</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2962729</t>
+          <t>SO3114524</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2968261</t>
+          <t>SO3117481</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2959355</t>
+          <t>SO3114613</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2959435</t>
+          <t>SO3114604</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2959534</t>
+          <t>SO3117498</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2959521</t>
+          <t>SO3114712</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2986119</t>
+          <t>SO3114698</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2959561</t>
+          <t>SO3114781</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2961461</t>
+          <t>SO3114832</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2960528</t>
+          <t>SO3114798</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2959557</t>
+          <t>SO3114841</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2959585</t>
+          <t>SO3115004</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2959666</t>
+          <t>SO3114933</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2992116</t>
+          <t>SO3120450</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2959611</t>
+          <t>SO3115834</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2967698</t>
+          <t>SO3115105</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2959704</t>
+          <t>SO3121488</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2959646</t>
+          <t>SO3122172</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2960259</t>
+          <t>SO3123866</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2959748</t>
+          <t>SO3115209</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2959743</t>
+          <t>SO3115239</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2963478</t>
+          <t>SO3115427</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2960855</t>
+          <t>SO3115366</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2964516</t>
+          <t>SO3119195</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2959800</t>
+          <t>SO3117675</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2959834</t>
+          <t>SO3115428</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2959814</t>
+          <t>SO3115352</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2959835</t>
+          <t>SO3115443</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2959874</t>
+          <t>SO3115741</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2959946</t>
+          <t>SO3115967</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2959996</t>
+          <t>SO3115466</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2993040</t>
+          <t>SO3115553</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2960075</t>
+          <t>SO3128296</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2961173</t>
+          <t>SO3115682</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2960027</t>
+          <t>SO3115774</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2959948</t>
+          <t>SO3119028</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2960051</t>
+          <t>SO3115775</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2962213</t>
+          <t>SO3115795</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2960132</t>
+          <t>SO3117731</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2959995</t>
+          <t>SO3115850</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2960074</t>
+          <t>SO3115947</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2960061</t>
+          <t>SO3115921</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2960084</t>
+          <t>SO3115950</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2970650</t>
+          <t>SO3115892</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2971572</t>
+          <t>SO3115930</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2960213</t>
+          <t>SO3115920</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2960110</t>
+          <t>SO3116104</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2960081</t>
+          <t>SO3115948</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2960114</t>
+          <t>SO3115946</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2971672</t>
+          <t>SO3115949</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2960776</t>
+          <t>SO3116023</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2960172</t>
+          <t>SO3123370</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2960216</t>
+          <t>SO3115966</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2960202</t>
+          <t>SO3115972</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2962787</t>
+          <t>SO3116032</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2960264</t>
+          <t>SO3116020</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2960201</t>
+          <t>SO3117501</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2960252</t>
+          <t>SO3116136</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2960276</t>
+          <t>SO3116088</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2960326</t>
+          <t>SO3116064</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2960246</t>
+          <t>SO3116286</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2960285</t>
+          <t>SO3116132</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2960960</t>
+          <t>SO3116102</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2960403</t>
+          <t>SO3118002</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2960680</t>
+          <t>SO3116133</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2960380</t>
+          <t>SO3116252</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2967729</t>
+          <t>SO3121886</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2960693</t>
+          <t>SO3117033</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2960512</t>
+          <t>SO3116168</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2960530</t>
+          <t>SO3116190</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2960433</t>
+          <t>SO3116192</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2960479</t>
+          <t>SO3116134</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2968885</t>
+          <t>SO3116232</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2960510</t>
+          <t>SO3116264</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2960571</t>
+          <t>SO3116185</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2960580</t>
+          <t>SO3116202</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2960659</t>
+          <t>SO3116298</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2960573</t>
+          <t>SO3116231</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2962236</t>
+          <t>SO3118833</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2960763</t>
+          <t>SO3116263</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2960708</t>
+          <t>SO3121234</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2960831</t>
+          <t>SO3116352</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2960826</t>
+          <t>SO3116419</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2960882</t>
+          <t>SO3116341</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2960957</t>
+          <t>SO3116343</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2979918</t>
+          <t>SO3116284</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2960856</t>
+          <t>SO3116394</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2960928</t>
+          <t>SO3116420</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2960881</t>
+          <t>SO3116399</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2960975</t>
+          <t>SO3116463</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2960931</t>
+          <t>SO3116482</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2960944</t>
+          <t>SO3116468</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2960945</t>
+          <t>SO3116518</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2960927</t>
+          <t>SO3116537</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2962791</t>
+          <t>SO3116562</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2961034</t>
+          <t>SO3116595</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2961004</t>
+          <t>SO3116602</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2971466</t>
+          <t>SO3116654</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2961036</t>
+          <t>SO3116483</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2961074</t>
+          <t>SO3116538</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2961033</t>
+          <t>SO3116551</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2961075</t>
+          <t>SO3116665</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2961172</t>
+          <t>SO3116707</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2961203</t>
+          <t>SO3116650</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2961154</t>
+          <t>SO3116755</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2969218</t>
+          <t>SO3116780</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2961207</t>
+          <t>SO3116795</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2961233</t>
+          <t>SO3116814</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2965930</t>
+          <t>SO3123381</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2961301</t>
+          <t>SO3116830</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2961361</t>
+          <t>SO3116848</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2961360</t>
+          <t>SO3127903</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2961369</t>
+          <t>SO3116840</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2961349</t>
+          <t>SO3116839</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2961351</t>
+          <t>SO3116882</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2961416</t>
+          <t>SO3117147</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2970824</t>
+          <t>SO3116845</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2961576</t>
+          <t>SO3116849</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2961574</t>
+          <t>SO3116894</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2961612</t>
+          <t>SO3116972</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2987850</t>
+          <t>SO3117098</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2963624</t>
+          <t>SO3116936</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2962326</t>
+          <t>SO3117026</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2961768</t>
+          <t>SO3117071</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2961860</t>
+          <t>SO3117022</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2988881</t>
+          <t>SO3117141</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2961845</t>
+          <t>SO3117040</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2963911</t>
+          <t>SO3119284</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2965009</t>
+          <t>SO3117080</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2961877</t>
+          <t>SO3117367</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2962454</t>
+          <t>SO3117211</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2964749</t>
+          <t>SO3117433</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2992807</t>
+          <t>SO3117401</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2962618</t>
+          <t>SO3117458</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2961893</t>
+          <t>SO3117471</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2963310</t>
+          <t>SO3117518</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2966982</t>
+          <t>SO3117493</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2966371</t>
+          <t>SO3117492</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2962022</t>
+          <t>SO3117534</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2962059</t>
+          <t>SO3117588</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2964107</t>
+          <t>SO3121055</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2962096</t>
+          <t>SO3118816</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2962129</t>
+          <t>SO3117676</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2969905</t>
+          <t>SO3118758</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2962122</t>
+          <t>SO3117677</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2962126</t>
+          <t>SO3119554</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2967952</t>
+          <t>SO3117870</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2967692</t>
+          <t>SO3118134</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2962239</t>
+          <t>SO3117836</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2962311</t>
+          <t>SO3117835</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2962359</t>
+          <t>SO3137298</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2963543</t>
+          <t>SO3117957</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2962455</t>
+          <t>SO3117982</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2962396</t>
+          <t>SO3117908</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2962428</t>
+          <t>SO3117958</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2962427</t>
+          <t>SO3118059</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2975106</t>
+          <t>SO3118028</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2962457</t>
+          <t>SO3118044</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2969710</t>
+          <t>SO3118136</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2962559</t>
+          <t>SO3118683</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2962589</t>
+          <t>SO3119088</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2963303</t>
+          <t>SO3120564</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2962561</t>
+          <t>SO3118259</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2962630</t>
+          <t>SO3118347</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2962615</t>
+          <t>SO3118434</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2962635</t>
+          <t>SO3122512</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2973746</t>
+          <t>SO3118433</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2962651</t>
+          <t>SO3118451</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2970988</t>
+          <t>SO3118549</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2962734</t>
+          <t>SO3118719</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2962730</t>
+          <t>SO3118734</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2962743</t>
+          <t>SO3118735</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2966373</t>
+          <t>SO3118801</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2962819</t>
+          <t>SO3118828</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2987575</t>
+          <t>SO3118884</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2962898</t>
+          <t>SO3119895</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2962817</t>
+          <t>SO3118918</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2963221</t>
+          <t>SO3118945</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2962890</t>
+          <t>SO3120412</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2962897</t>
+          <t>SO3118969</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2962974</t>
+          <t>SO3119031</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2965423</t>
+          <t>SO3124096</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2963412</t>
+          <t>SO3119011</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2962938</t>
+          <t>SO3118974</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2962909</t>
+          <t>SO3119070</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2962977</t>
+          <t>SO3119096</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2963006</t>
+          <t>SO3119170</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2963036</t>
+          <t>SO3119144</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2963038</t>
+          <t>SO3119283</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2963890</t>
+          <t>SO3119286</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2963727</t>
+          <t>SO3120295</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2963045</t>
+          <t>SO3119253</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2963252</t>
+          <t>SO3119241</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2963188</t>
+          <t>SO3122056</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2963040</t>
+          <t>SO3119324</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2963043</t>
+          <t>SO3127285</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2963100</t>
+          <t>SO3119445</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2963074</t>
+          <t>SO3119414</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2963139</t>
+          <t>SO3119412</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2963075</t>
+          <t>SO3119408</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2963135</t>
+          <t>SO3120715</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2963132</t>
+          <t>SO3119434</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2963187</t>
+          <t>SO3122183</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2963425</t>
+          <t>SO3119470</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2963254</t>
+          <t>SO3122711</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2963309</t>
+          <t>SO3119567</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2996746</t>
+          <t>SO3119613</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2963241</t>
+          <t>SO3141623</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2963377</t>
+          <t>SO3120080</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2967202</t>
+          <t>SO3119762</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2963371</t>
+          <t>SO3122112</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2963315</t>
+          <t>SO3119837</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2963375</t>
+          <t>SO3119876</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2964672</t>
+          <t>SO3120094</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2963379</t>
+          <t>SO3120110</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2963426</t>
+          <t>SO3120109</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2963482</t>
+          <t>SO3120137</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2967282</t>
+          <t>SO3120149</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2963433</t>
+          <t>SO3125060</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2963382</t>
+          <t>SO3120203</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2963415</t>
+          <t>SO3120198</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2963502</t>
+          <t>SO3120161</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2965522</t>
+          <t>SO3120263</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2963479</t>
+          <t>SO3120231</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2963513</t>
+          <t>SO3120298</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2971272</t>
+          <t>SO3120290</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2963612</t>
+          <t>SO3120336</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2963538</t>
+          <t>SO3120351</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2963617</t>
+          <t>SO3120311</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2970616</t>
+          <t>SO3123633</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2963609</t>
+          <t>SO3120404</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2963507</t>
+          <t>SO3120377</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2964131</t>
+          <t>SO3120474</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2963603</t>
+          <t>SO3120490</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2963580</t>
+          <t>SO3120537</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2963955</t>
+          <t>SO3121681</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2963722</t>
+          <t>SO3120630</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2963676</t>
+          <t>SO3120660</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2963685</t>
+          <t>SO3120658</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2963638</t>
+          <t>SO3120714</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2963856</t>
+          <t>SO3121546</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2963872</t>
+          <t>SO3123647</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2963733</t>
+          <t>SO3120731</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2963728</t>
+          <t>SO3120729</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2964130</t>
+          <t>SO3120730</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2963874</t>
+          <t>SO3120770</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2963729</t>
+          <t>SO3120769</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2963739</t>
+          <t>SO3120809</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2963831</t>
+          <t>SO3120785</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2963859</t>
+          <t>SO3120838</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2963854</t>
+          <t>SO3120962</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2963858</t>
+          <t>SO3121769</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2985049</t>
+          <t>SO3122311</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2963861</t>
+          <t>SO3120961</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2967206</t>
+          <t>SO3120999</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2963871</t>
+          <t>SO3121027</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2990435</t>
+          <t>SO3121115</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2964443</t>
+          <t>SO3121363</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2963917</t>
+          <t>SO3121155</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2963939</t>
+          <t>SO3124316</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2989251</t>
+          <t>SO3124952</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2964196</t>
+          <t>SO3124308</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2964105</t>
+          <t>SO3121364</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2964110</t>
+          <t>SO3121381</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2964195</t>
+          <t>SO3124133</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2987760</t>
+          <t>SO3121310</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2964103</t>
+          <t>SO3121304</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2964352</t>
+          <t>SO3121540</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2964197</t>
+          <t>SO3121525</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2964132</t>
+          <t>SO3121615</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2964190</t>
+          <t>SO3121529</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2964224</t>
+          <t>SO3126204</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2968205</t>
+          <t>SO3130669</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2964431</t>
+          <t>SO3121665</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2964344</t>
+          <t>SO3123678</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2964338</t>
+          <t>SO3122067</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2964345</t>
+          <t>SO3121700</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2964302</t>
+          <t>SO3121823</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2964263</t>
+          <t>SO3121854</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2964346</t>
+          <t>SO3121802</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2964351</t>
+          <t>SO3121894</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2964446</t>
+          <t>SO3121883</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2964481</t>
+          <t>SO3121916</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2964340</t>
+          <t>SO3121983</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2964436</t>
+          <t>SO3121972</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2969761</t>
+          <t>SO3121882</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2964337</t>
+          <t>SO3121970</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2964521</t>
+          <t>SO3122006</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2964620</t>
+          <t>SO3122040</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2964547</t>
+          <t>SO3122016</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2964518</t>
+          <t>SO3121978</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2964452</t>
+          <t>SO3122450</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2964485</t>
+          <t>SO3123162</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2964482</t>
+          <t>SO3122157</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2964694</t>
+          <t>SO3122156</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2964587</t>
+          <t>SO3122051</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2967198</t>
+          <t>SO3122097</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2964687</t>
+          <t>SO3122038</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2964791</t>
+          <t>SO3122066</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2964680</t>
+          <t>SO3122173</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2964691</t>
+          <t>SO3122111</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2964649</t>
+          <t>SO3123722</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2986218</t>
+          <t>SO3122192</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2972284</t>
+          <t>SO3122219</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2964621</t>
+          <t>SO3122116</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2964684</t>
+          <t>SO3122202</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2964674</t>
+          <t>SO3122184</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2964708</t>
+          <t>SO3122198</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2964998</t>
+          <t>SO3122182</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2968406</t>
+          <t>SO3122180</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2964792</t>
+          <t>SO3122195</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2967553</t>
+          <t>SO3122312</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2965390</t>
+          <t>SO3122902</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2966770</t>
+          <t>SO3122402</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2965013</t>
+          <t>SO3122477</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2964785</t>
+          <t>SO3123309</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2964901</t>
+          <t>SO3122511</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2964935</t>
+          <t>SO3123567</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2967706</t>
+          <t>SO3122570</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2965006</t>
+          <t>SO3122713</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2964899</t>
+          <t>SO3122732</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2967563</t>
+          <t>SO3122665</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2965003</t>
+          <t>SO3128983</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2964937</t>
+          <t>SO3122667</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2964963</t>
+          <t>SO3122820</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2965449</t>
+          <t>SO3122832</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2986120</t>
+          <t>SO3122806</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2965299</t>
+          <t>SO3122887</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2965091</t>
+          <t>SO3123040</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2965789</t>
+          <t>SO3125341</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2965296</t>
+          <t>SO3122945</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2968102</t>
+          <t>SO3123131</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2965297</t>
+          <t>SO3123025</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2965339</t>
+          <t>SO3125083</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2965424</t>
+          <t>SO3123259</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2965301</t>
+          <t>SO3123328</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2965298</t>
+          <t>SO3123384</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2965366</t>
+          <t>SO3123389</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2965312</t>
+          <t>SO3123510</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2965294</t>
+          <t>SO3123573</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2965311</t>
+          <t>SO3123612</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2965398</t>
+          <t>SO3123737</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2965529</t>
+          <t>SO3123614</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2965393</t>
+          <t>SO3123693</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2965367</t>
+          <t>SO3123705</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2965386</t>
+          <t>SO3123830</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2965359</t>
+          <t>SO3124266</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2970229</t>
+          <t>SO3123808</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2965422</t>
+          <t>SO3124060</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2965447</t>
+          <t>SO3123794</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2965594</t>
+          <t>SO3123969</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2965532</t>
+          <t>SO3123859</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2965480</t>
+          <t>SO3123908</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2996474</t>
+          <t>SO3123931</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2970059</t>
+          <t>SO3123980</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2965595</t>
+          <t>SO3123961</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2965592</t>
+          <t>SO3123960</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2965792</t>
+          <t>SO3124034</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2965625</t>
+          <t>SO3124025</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2968369</t>
+          <t>SO3124132</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2981948</t>
+          <t>SO3124058</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2965646</t>
+          <t>SO3124080</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2965624</t>
+          <t>SO3124062</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2965648</t>
+          <t>SO3129508</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2988128</t>
+          <t>SO3124095</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2966393</t>
+          <t>SO3124077</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2965734</t>
+          <t>SO3140719</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2965721</t>
+          <t>SO3124157</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2965748</t>
+          <t>SO3128657</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2965853</t>
+          <t>SO3124933</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2965749</t>
+          <t>SO3125133</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2965758</t>
+          <t>SO3124424</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2965796</t>
+          <t>SO3135883</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2965852</t>
+          <t>SO3124421</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2965850</t>
+          <t>SO3124391</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2965867</t>
+          <t>SO3142437</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2965908</t>
+          <t>SO3124508</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2965916</t>
+          <t>SO3124423</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2965922</t>
+          <t>SO3125264</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2967618</t>
+          <t>SO3124517</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2965914</t>
+          <t>SO3124608</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2965965</t>
+          <t>SO3124578</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2965931</t>
+          <t>SO3124646</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2965994</t>
+          <t>SO3124759</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2965957</t>
+          <t>SO3124955</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2966009</t>
+          <t>SO3124844</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2966064</t>
+          <t>SO3126345</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2965993</t>
+          <t>SO3124860</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2971024</t>
+          <t>SO3124921</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2965995</t>
+          <t>SO3124843</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2991520</t>
+          <t>SO3124944</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2966099</t>
+          <t>SO3124984</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2966080</t>
+          <t>SO3125010</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2966108</t>
+          <t>SO3126392</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2966118</t>
+          <t>SO3124977</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2966133</t>
+          <t>SO3126364</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2966162</t>
+          <t>SO3125109</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2966161</t>
+          <t>SO3125578</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2966175</t>
+          <t>SO3125259</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2966227</t>
+          <t>SO3125861</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2968029</t>
+          <t>SO3126954</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2966252</t>
+          <t>SO3125223</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2966264</t>
+          <t>SO3125216</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2966281</t>
+          <t>SO3125143</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2966311</t>
+          <t>SO3125255</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2966425</t>
+          <t>SO3125277</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2971629</t>
+          <t>SO3125337</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2966478</t>
+          <t>SO3125298</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2966668</t>
+          <t>SO3125297</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2966535</t>
+          <t>SO3125318</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2967476</t>
+          <t>SO3125342</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2966395</t>
+          <t>SO3125370</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2966422</t>
+          <t>SO3125448</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2966477</t>
+          <t>SO3125497</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2966439</t>
+          <t>SO3125535</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2966473</t>
+          <t>SO3125577</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2966534</t>
+          <t>SO3125614</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2976884</t>
+          <t>SO3125627</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2966529</t>
+          <t>SO3125645</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2966557</t>
+          <t>SO3125698</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2966714</t>
+          <t>SO3125805</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2966578</t>
+          <t>SO3125802</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2966532</t>
+          <t>SO3125811</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2966509</t>
+          <t>SO3126090</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2966577</t>
+          <t>SO3125864</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2966746</t>
+          <t>SO3125895</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2966595</t>
+          <t>SO3125883</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2966597</t>
+          <t>SO3130848</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2993006</t>
+          <t>SO3127764</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2966625</t>
+          <t>SO3129643</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2975158</t>
+          <t>SO3125924</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2966671</t>
+          <t>SO3137937</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2967923</t>
+          <t>SO3126040</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2966710</t>
+          <t>SO3126113</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2966673</t>
+          <t>SO3126188</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2966666</t>
+          <t>SO3135010</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2967857</t>
+          <t>SO3126356</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2966713</t>
+          <t>SO3126250</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2966716</t>
+          <t>SO3126289</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2966742</t>
+          <t>SO3126910</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2966786</t>
+          <t>SO3126405</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2967977</t>
+          <t>SO3133042</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2966976</t>
+          <t>SO3126393</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2966843</t>
+          <t>SO3126522</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2967975</t>
+          <t>SO3126525</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2966850</t>
+          <t>SO3126583</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2966810</t>
+          <t>SO3126630</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2976779</t>
+          <t>SO3126548</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2966814</t>
+          <t>SO3131828</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2968092</t>
+          <t>SO3126784</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2966873</t>
+          <t>SO3126832</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2966928</t>
+          <t>SO3126718</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2973333</t>
+          <t>SO3126716</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2967518</t>
+          <t>SO3126806</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2966968</t>
+          <t>SO3126815</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2967119</t>
+          <t>SO3126847</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2966967</t>
+          <t>SO3126845</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2967011</t>
+          <t>SO3127746</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2966995</t>
+          <t>SO3126953</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2966966</t>
+          <t>SO3127033</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2968038</t>
+          <t>SO3127074</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2966999</t>
+          <t>SO3127096</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2968307</t>
+          <t>SO3127171</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2967046</t>
+          <t>SO3127309</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2967253</t>
+          <t>SO3127302</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2967503</t>
+          <t>SO3127403</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2971848</t>
+          <t>SO3127387</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2967138</t>
+          <t>SO3127471</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2967261</t>
+          <t>SO3127442</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2967431</t>
+          <t>SO3127571</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2967314</t>
+          <t>SO3127550</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2967315</t>
+          <t>SO3127585</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2967337</t>
+          <t>SO3127720</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2967277</t>
+          <t>SO3132730</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2967249</t>
+          <t>SO3127796</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2969413</t>
+          <t>SO3129301</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2967317</t>
+          <t>SO3127888</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2967313</t>
+          <t>SO3127964</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2983101</t>
+          <t>SO3127950</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2967409</t>
+          <t>SO3127981</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2967435</t>
+          <t>SO3132321</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2967463</t>
+          <t>SO3137615</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2967455</t>
+          <t>SO3127995</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2967380</t>
+          <t>SO3128095</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2967439</t>
+          <t>SO3128093</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2967457</t>
+          <t>SO3128102</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2967517</t>
+          <t>SO3128113</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2967440</t>
+          <t>SO3128162</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2967458</t>
+          <t>SO3128202</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2967815</t>
+          <t>SO3128263</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2967495</t>
+          <t>SO3128252</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2967594</t>
+          <t>SO3128264</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2967767</t>
+          <t>SO3129167</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2967566</t>
+          <t>SO3128325</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2967612</t>
+          <t>SO3128308</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2967619</t>
+          <t>SO3132501</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2967959</t>
+          <t>SO3128437</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2971356</t>
+          <t>SO3128401</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2967702</t>
+          <t>SO3128447</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2967639</t>
+          <t>SO3130960</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2967703</t>
+          <t>SO3128438</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2970626</t>
+          <t>SO3128476</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2988606</t>
+          <t>SO3128671</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2968609</t>
+          <t>SO3128477</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2967730</t>
+          <t>SO3128494</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2967728</t>
+          <t>SO3128622</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2967695</t>
+          <t>SO3128804</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2967893</t>
+          <t>SO3130454</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2967765</t>
+          <t>SO3129073</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2967711</t>
+          <t>SO3129325</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2967856</t>
+          <t>SO3129105</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2967850</t>
+          <t>SO3129139</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2967733</t>
+          <t>SO3129160</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2970935</t>
+          <t>SO3129322</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2967950</t>
+          <t>SO3129470</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2969154</t>
+          <t>SO3129440</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2970006</t>
+          <t>SO3129457</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2967894</t>
+          <t>SO3129449</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2967921</t>
+          <t>SO3129463</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2967955</t>
+          <t>SO3130476</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2967926</t>
+          <t>SO3129506</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2967905</t>
+          <t>SO3129509</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2969252</t>
+          <t>SO3129510</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2967960</t>
+          <t>SO3129581</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2969565</t>
+          <t>SO3129525</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2968100</t>
+          <t>SO3129609</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2995135</t>
+          <t>SO3129638</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2967962</t>
+          <t>SO3129647</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2968022</t>
+          <t>SO3129679</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2995586</t>
+          <t>SO3129963</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2968093</t>
+          <t>SO3129811</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO3004017</t>
+          <t>SO3129761</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2968055</t>
+          <t>SO3129785</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2968094</t>
+          <t>SO3129783</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2968178</t>
+          <t>SO3129839</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2968305</t>
+          <t>SO3129986</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2968076</t>
+          <t>SO3129928</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2968143</t>
+          <t>SO3129960</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2968145</t>
+          <t>SO3130017</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2968226</t>
+          <t>SO3130036</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2980930</t>
+          <t>SO3129973</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2971135</t>
+          <t>SO3129958</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2968201</t>
+          <t>SO3129998</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2968202</t>
+          <t>SO3130016</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2985204</t>
+          <t>SO3130072</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2968499</t>
+          <t>SO3130112</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2968380</t>
+          <t>SO3130061</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO2968324</t>
+          <t>SO3130076</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2970303</t>
+          <t>SO3131252</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2974947</t>
+          <t>SO3130134</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2976877</t>
+          <t>SO3130151</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2968365</t>
+          <t>SO3130152</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2968442</t>
+          <t>SO3130136</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2968501</t>
+          <t>SO3130474</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2997922</t>
+          <t>SO3130419</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2969667</t>
+          <t>SO3130458</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2968441</t>
+          <t>SO3130326</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2968622</t>
+          <t>SO3130417</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2972482</t>
+          <t>SO3133228</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2969825</t>
+          <t>SO3130418</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2989914</t>
+          <t>SO3130350</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2968505</t>
+          <t>SO3130487</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2968538</t>
+          <t>SO3130429</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2968541</t>
+          <t>SO3130491</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2968610</t>
+          <t>SO3130786</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2968621</t>
+          <t>SO3130523</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2968613</t>
+          <t>SO3130531</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2968545</t>
+          <t>SO3133020</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2971174</t>
+          <t>SO3131625</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2968567</t>
+          <t>SO3130533</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2971198</t>
+          <t>SO3130576</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2970693</t>
+          <t>SO3130578</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2968651</t>
+          <t>SO3130636</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2976035</t>
+          <t>SO3130606</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2968896</t>
+          <t>SO3130586</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2968898</t>
+          <t>SO3130763</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2968742</t>
+          <t>SO3131168</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2968999</t>
+          <t>SO3130733</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2968744</t>
+          <t>SO3130761</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2970061</t>
+          <t>SO3132352</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2968748</t>
+          <t>SO3130847</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2968777</t>
+          <t>SO3130979</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2968897</t>
+          <t>SO3131056</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2969641</t>
+          <t>SO3137522</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2968902</t>
+          <t>SO3131224</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2985832</t>
+          <t>SO3131247</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2968888</t>
+          <t>SO3131303</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2968895</t>
+          <t>SO3131356</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2970108</t>
+          <t>SO3131390</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2968931</t>
+          <t>SO3131430</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2968863</t>
+          <t>SO3132731</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2968918</t>
+          <t>SO3131429</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2968924</t>
+          <t>SO3131464</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2970406</t>
+          <t>SO3131486</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2968834</t>
+          <t>SO3131511</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2970060</t>
+          <t>SO3131698</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2969145</t>
+          <t>SO3131675</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2969152</t>
+          <t>SO3131643</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2994528</t>
+          <t>SO3131718</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2969147</t>
+          <t>SO3131790</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2969031</t>
+          <t>SO3131724</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2969188</t>
+          <t>SO3131829</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2969166</t>
+          <t>SO3131852</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2969148</t>
+          <t>SO3131840</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2969220</t>
+          <t>SO3131944</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2969191</t>
+          <t>SO3131908</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2969144</t>
+          <t>SO3131930</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2969408</t>
+          <t>SO3132053</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2969115</t>
+          <t>SO3132001</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2969222</t>
+          <t>SO3132055</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2969192</t>
+          <t>SO3132134</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2969216</t>
+          <t>SO3132276</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2970734</t>
+          <t>SO3132106</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2969219</t>
+          <t>SO3132221</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2969256</t>
+          <t>SO3132324</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2973110</t>
+          <t>SO3132274</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2969454</t>
+          <t>SO3132224</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2969403</t>
+          <t>SO3132304</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2969406</t>
+          <t>SO3132419</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2969401</t>
+          <t>SO3132377</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2969402</t>
+          <t>SO3132417</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2969469</t>
+          <t>SO3132538</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2969477</t>
+          <t>SO3132546</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2969489</t>
+          <t>SO3132554</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2976569</t>
+          <t>SO3132659</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2991437</t>
+          <t>SO3132678</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2970137</t>
+          <t>SO3132827</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2969544</t>
+          <t>SO3132663</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2969675</t>
+          <t>SO3134504</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2969563</t>
+          <t>SO3132674</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2969671</t>
+          <t>SO3132676</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2969673</t>
+          <t>SO3132735</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2969684</t>
+          <t>SO3132865</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2998857</t>
+          <t>SO3134014</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2969664</t>
+          <t>SO3133004</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2973386</t>
+          <t>SO3133362</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2969674</t>
+          <t>SO3133296</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2969858</t>
+          <t>SO3133243</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2969705</t>
+          <t>SO3133137</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2969663</t>
+          <t>SO3133157</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2969706</t>
+          <t>SO3133191</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2969738</t>
+          <t>SO3133251</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2985843</t>
+          <t>SO3133295</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2969790</t>
+          <t>SO3133408</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2969892</t>
+          <t>SO3133424</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2969828</t>
+          <t>SO3133548</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2969793</t>
+          <t>SO3133491</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2969789</t>
+          <t>SO3133546</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2969859</t>
+          <t>SO3133637</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2988404</t>
+          <t>SO3133679</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2969943</t>
+          <t>SO3133707</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2969980</t>
+          <t>SO3139465</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2970078</t>
+          <t>SO3133937</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2970027</t>
+          <t>SO3133934</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2970305</t>
+          <t>SO3134001</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2999553</t>
+          <t>SO3134186</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2970281</t>
+          <t>SO3138030</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2972089</t>
+          <t>SO3134314</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2970345</t>
+          <t>SO3134317</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2970295</t>
+          <t>SO3134291</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2970322</t>
+          <t>SO3134302</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2972885</t>
+          <t>SO3136879</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2970323</t>
+          <t>SO3134536</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2970344</t>
+          <t>SO3134598</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2970138</t>
+          <t>SO3134599</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO3001860</t>
+          <t>SO3135310</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2970293</t>
+          <t>SO3134635</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2970374</t>
+          <t>SO3134616</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2970392</t>
+          <t>SO3134652</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2970455</t>
+          <t>SO3134720</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2970617</t>
+          <t>SO3134717</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2970403</t>
+          <t>SO3134770</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2996867</t>
+          <t>SO3134878</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2970451</t>
+          <t>SO3134937</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2970405</t>
+          <t>SO3135126</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2970501</t>
+          <t>SO3135037</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2970620</t>
+          <t>SO3135291</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2971458</t>
+          <t>SO3135161</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2980777</t>
+          <t>SO3135125</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2970550</t>
+          <t>SO3135264</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2970618</t>
+          <t>SO3135479</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2970554</t>
+          <t>SO3135320</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2970531</t>
+          <t>SO3135497</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2970647</t>
+          <t>SO3135845</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2970677</t>
+          <t>SO3135430</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2970713</t>
+          <t>SO3135435</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2988260</t>
+          <t>SO3135507</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2980733</t>
+          <t>SO3135544</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2970692</t>
+          <t>SO3135966</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2970826</t>
+          <t>SO3136013</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2970759</t>
+          <t>SO3135904</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO2978067</t>
+          <t>SO3135923</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2970755</t>
+          <t>SO3136052</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2991414</t>
+          <t>SO3136138</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2970821</t>
+          <t>SO3136087</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2970756</t>
+          <t>SO3135939</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2970739</t>
+          <t>SO3141932</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2970763</t>
+          <t>SO3139094</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2970782</t>
+          <t>SO3136156</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2970986</t>
+          <t>SO3136246</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2970914</t>
+          <t>SO3136342</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO2970920</t>
+          <t>SO3136126</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2970803</t>
+          <t>SO3136380</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2970911</t>
+          <t>SO3136648</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2972605</t>
+          <t>SO3136414</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2971030</t>
+          <t>SO3136569</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO2971038</t>
+          <t>SO3136555</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2971140</t>
+          <t>SO3136595</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2971031</t>
+          <t>SO3136641</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2971223</t>
+          <t>SO3136568</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2999135</t>
+          <t>SO3136609</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2971177</t>
+          <t>SO3137437</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO2971464</t>
+          <t>SO3137435</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2971220</t>
+          <t>SO3136670</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2971215</t>
+          <t>SO3136736</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2971225</t>
+          <t>SO3136816</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2971126</t>
+          <t>SO3136843</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2986718</t>
+          <t>SO3138532</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2971674</t>
+          <t>SO3138072</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2992371</t>
+          <t>SO3136974</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2983633</t>
+          <t>SO3136994</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2971305</t>
+          <t>SO3137076</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2971332</t>
+          <t>SO3137075</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2997750</t>
+          <t>SO3137500</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2971632</t>
+          <t>SO3136967</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2971427</t>
+          <t>SO3136942</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2971506</t>
+          <t>SO3137326</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2971677</t>
+          <t>SO3137282</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2971417</t>
+          <t>SO3137624</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO2971512</t>
+          <t>SO3137753</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO2971505</t>
+          <t>SO3138216</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2971717</t>
+          <t>SO3138101</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2971894</t>
+          <t>SO3137912</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2971511</t>
+          <t>SO3138112</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2977502</t>
+          <t>SO3137957</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2971637</t>
+          <t>SO3138028</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2971715</t>
+          <t>SO3138074</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2972102</t>
+          <t>SO3138191</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2985128</t>
+          <t>SO3138346</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2971628</t>
+          <t>SO3138267</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2971639</t>
+          <t>SO3138272</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2985037</t>
+          <t>SO3138311</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2971891</t>
+          <t>SO3138498</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2975601</t>
+          <t>SO3138591</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2971910</t>
+          <t>SO3138652</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2971903</t>
+          <t>SO3138761</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2972213</t>
+          <t>SO3138845</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2971776</t>
+          <t>SO3138684</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2971636</t>
+          <t>SO3138840</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2971898</t>
+          <t>SO3138860</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2971720</t>
+          <t>SO3147794</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2971906</t>
+          <t>SO3138951</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2971810</t>
+          <t>SO3138988</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2971887</t>
+          <t>SO3138929</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2971912</t>
+          <t>SO3140604</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2971845</t>
+          <t>SO3139175</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2971885</t>
+          <t>SO3139034</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2971890</t>
+          <t>SO3139095</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2976516</t>
+          <t>SO3139068</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2971980</t>
+          <t>SO3139401</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2972428</t>
+          <t>SO3139155</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO2973930</t>
+          <t>SO3139136</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2972212</t>
+          <t>SO3139325</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2972091</t>
+          <t>SO3139259</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2972057</t>
+          <t>SO3139656</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2972209</t>
+          <t>SO3139302</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2972208</t>
+          <t>SO3139595</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2972210</t>
+          <t>SO3139271</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2972086</t>
+          <t>SO3139431</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2972090</t>
+          <t>SO3145019</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2972215</t>
+          <t>SO3139701</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2972649</t>
+          <t>SO3139468</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2972759</t>
+          <t>SO3139405</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2972287</t>
+          <t>SO3139509</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2972281</t>
+          <t>SO3139560</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2972371</t>
+          <t>SO3139561</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2972283</t>
+          <t>SO3139639</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2983352</t>
+          <t>SO3139594</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2973339</t>
+          <t>SO3139657</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2972368</t>
+          <t>SO3139751</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2972523</t>
+          <t>SO3139797</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2972553</t>
+          <t>SO3139812</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2974427</t>
+          <t>SO3139930</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2972774</t>
+          <t>SO3142098</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2972551</t>
+          <t>SO3139986</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2972651</t>
+          <t>SO3140048</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2972644</t>
+          <t>SO3140083</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2972647</t>
+          <t>SO3140290</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2972646</t>
+          <t>SO3140212</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2972810</t>
+          <t>SO3140262</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2972814</t>
+          <t>SO3140331</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2972846</t>
+          <t>SO3140329</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2972683</t>
+          <t>SO3140764</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2972977</t>
+          <t>SO3140739</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2972761</t>
+          <t>SO3140816</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2972982</t>
+          <t>SO3140834</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2978823</t>
+          <t>SO3143083</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2972891</t>
+          <t>SO3141183</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2973178</t>
+          <t>SO3140863</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2977301</t>
+          <t>SO3141435</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2972976</t>
+          <t>SO3140935</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2973016</t>
+          <t>SO3140944</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2972897</t>
+          <t>SO3143037</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO2972935</t>
+          <t>SO3142376</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO3004087</t>
+          <t>SO3141356</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2973420</t>
+          <t>SO3141193</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2973179</t>
+          <t>SO3141276</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2973139</t>
+          <t>SO3141313</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2973328</t>
+          <t>SO3141357</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2973338</t>
+          <t>SO3141310</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2973382</t>
+          <t>SO3141332</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2973322</t>
+          <t>SO3141548</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2973383</t>
+          <t>SO3141624</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2973330</t>
+          <t>SO3141522</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2973281</t>
+          <t>SO3141523</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2973218</t>
+          <t>SO3141651</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2973222</t>
+          <t>SO3143960</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2973710</t>
+          <t>SO3142934</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2973319</t>
+          <t>SO3142015</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2973384</t>
+          <t>SO3142077</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2973612</t>
+          <t>SO3143598</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2973807</t>
+          <t>SO3142128</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2973585</t>
+          <t>SO3142231</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2973452</t>
+          <t>SO3142230</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2973769</t>
+          <t>SO3142293</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2973573</t>
+          <t>SO3142422</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2973607</t>
+          <t>SO3142460</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2973709</t>
+          <t>SO3142319</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2973422</t>
+          <t>SO3142458</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2973488</t>
+          <t>SO3142363</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2973609</t>
+          <t>SO3142521</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2973708</t>
+          <t>SO3142443</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2973810</t>
+          <t>SO3142525</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO2973528</t>
+          <t>SO3142619</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2973569</t>
+          <t>SO3142666</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2973582</t>
+          <t>SO3142912</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2973611</t>
+          <t>SO3143110</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2973742</t>
+          <t>SO3143552</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2973713</t>
+          <t>SO3144722</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2973931</t>
+          <t>SO3143380</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2973885</t>
+          <t>SO3143010</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2973933</t>
+          <t>SO3143095</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2974194</t>
+          <t>SO3143109</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2973925</t>
+          <t>SO3143133</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2981651</t>
+          <t>SO3143159</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO2974089</t>
+          <t>SO3143593</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2973926</t>
+          <t>SO3144343</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2973997</t>
+          <t>SO3143714</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2984401</t>
+          <t>SO3143864</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2973946</t>
+          <t>SO3143945</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO2976820</t>
+          <t>SO3143961</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2974080</t>
+          <t>SO3144108</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2974000</t>
+          <t>SO3144086</t>
         </is>
       </c>
     </row>
